--- a/Figures/figure8.xlsx
+++ b/Figures/figure8.xlsx
@@ -460,7 +460,7 @@
         <v>3658.683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>126.7926172568249</v>
+        <v>128.5229716949506</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>6149.196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>129.7731150189512</v>
+        <v>133.8069186196649</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>8838.014668688003</v>
       </c>
       <c r="C4" t="n">
-        <v>216.3669569067474</v>
+        <v>215.653629906205</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>11048.75865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>217.6685027880977</v>
+        <v>219.4588393185504</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>12869.58400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>447.9488512483625</v>
+        <v>431.8051531576035</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>13480.37164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>443.5545549042573</v>
+        <v>456.3469252560845</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>14149.91879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>331.1928763161706</v>
+        <v>342.6261442997167</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>14513.16828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>422.8352832457703</v>
+        <v>415.8653933984191</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>14519.84968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>382.1261143295948</v>
+        <v>385.7567344366738</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>20022.66000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>382.9888064976063</v>
+        <v>380.6424418144833</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>20187.1519177173</v>
       </c>
       <c r="C12" t="n">
-        <v>579.5506933623176</v>
+        <v>576.7089005026112</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>21447.0789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>518.0725019588047</v>
+        <v>525.1229131984687</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>26079.07670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>908.4764552570346</v>
+        <v>937.1869139158032</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>26666.03287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>699.5603277885072</v>
+        <v>699.0144513678822</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>27292.54363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>522.3153752975323</v>
+        <v>529.5751904933451</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>28208.55106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>575.9953669863555</v>
+        <v>569.4645173652523</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>28504.76361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>1041.928028913982</v>
+        <v>1038.634159713273</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>29088.96566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>1614.662172662131</v>
+        <v>1607.138286783728</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>29529.29932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>805.2754584291208</v>
+        <v>819.1899864860507</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>29801.81013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>761.6753289210221</v>
+        <v>757.6365731819679</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>30910.70748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>785.33503626299</v>
+        <v>790.9827452639485</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>33086.06534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>846.7980306173002</v>
+        <v>841.9420108242864</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>33821.1264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>1110.031509778463</v>
+        <v>1123.742976564404</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>33866.72561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>965.0786457962942</v>
+        <v>964.5075632031588</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>36660.96345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>977.1416977237139</v>
+        <v>979.1854948179625</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>37915.32721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>1166.957450186306</v>
+        <v>1175.539830144596</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>38507.33191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>1003.214952980593</v>
+        <v>1015.10241118592</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>39626.84315955194</v>
       </c>
       <c r="C29" t="n">
-        <v>933.762422689135</v>
+        <v>948.3460906104484</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>40826.53392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>1284.767586648041</v>
+        <v>1193.071156312519</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>41000.99633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>1161.765621949832</v>
+        <v>1179.142124866852</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>41741.43521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>990.6204077276514</v>
+        <v>988.2488992172919</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>41784.82081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>1154.211428433869</v>
+        <v>1149.327263476484</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>44651.36115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>1312.354197359469</v>
+        <v>1307.884326541615</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>45987.96083386493</v>
       </c>
       <c r="C35" t="n">
-        <v>1304.5564463347</v>
+        <v>1283.419782224302</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>47222.94185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>1163.433355941493</v>
+        <v>1166.474404010509</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>47470.63295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>1933.459424606599</v>
+        <v>1921.006666058707</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>48657.75224672654</v>
       </c>
       <c r="C38" t="n">
-        <v>2243.983854080554</v>
+        <v>2237.223722107346</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>50152.63589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>1763.090586610482</v>
+        <v>1766.51300203615</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>50771.44050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>1918.497428959043</v>
+        <v>1915.563519137307</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>52692.84744205404</v>
       </c>
       <c r="C41" t="n">
-        <v>1627.450234772229</v>
+        <v>1619.678141688832</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>53011.73802062972</v>
       </c>
       <c r="C42" t="n">
-        <v>1716.379334745585</v>
+        <v>1699.265530149593</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>54652.508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>1656.048017631479</v>
+        <v>1649.501177803552</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>55045.61490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>1964.162646597759</v>
+        <v>1961.158104661114</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>55348.89320301366</v>
       </c>
       <c r="C45" t="n">
-        <v>1741.86968720929</v>
+        <v>1736.354645928301</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>59984.09112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>2411.339967442706</v>
+        <v>2385.0621575964</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>62940.19617704568</v>
       </c>
       <c r="C47" t="n">
-        <v>2346.135092499304</v>
+        <v>2338.549815276835</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>67139.05770213302</v>
       </c>
       <c r="C48" t="n">
-        <v>1862.819155528588</v>
+        <v>1845.956226371107</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>78211.48525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>1589.28020547138</v>
+        <v>1596.173224836546</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         <v>112700.6754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>3427.744289512154</v>
+        <v>3451.430629123627</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/figure8.xlsx
+++ b/Figures/figure8.xlsx
@@ -460,7 +460,7 @@
         <v>3658.683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>128.5229716949506</v>
+        <v>124.8841655586322</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>6149.196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>133.8069186196649</v>
+        <v>124.1905198343063</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>8838.014668688003</v>
       </c>
       <c r="C4" t="n">
-        <v>215.653629906205</v>
+        <v>201.0397952678128</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>11048.75865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4588393185504</v>
+        <v>209.6366870621295</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>12869.58400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>431.8051531576035</v>
+        <v>415.5888154020474</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>13480.37164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>456.3469252560845</v>
+        <v>452.9531410628954</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>14149.91879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>342.6261442997167</v>
+        <v>313.1212541168178</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>14513.16828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>415.8653933984191</v>
+        <v>398.4469012570319</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>14519.84968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>385.7567344366738</v>
+        <v>365.267592606145</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>20022.66000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>380.6424418144833</v>
+        <v>354.8472065463146</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>20187.1519177173</v>
       </c>
       <c r="C12" t="n">
-        <v>576.7089005026112</v>
+        <v>541.0434353570234</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>21447.0789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>525.1229131984687</v>
+        <v>503.3169421585232</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>26079.07670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>937.1869139158032</v>
+        <v>919.9346972302124</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>26666.03287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>699.0144513678822</v>
+        <v>673.1850647811689</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>27292.54363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>529.5751904933451</v>
+        <v>516.3256785400293</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>28208.55106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>569.4645173652523</v>
+        <v>563.25236871781</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>28504.76361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>1038.634159713273</v>
+        <v>981.1130843061849</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>29088.96566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>1607.138286783728</v>
+        <v>1514.443225538084</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>29529.29932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>819.1899864860507</v>
+        <v>813.6677088815854</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>29801.81013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>757.6365731819679</v>
+        <v>756.7779807417407</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>30910.70748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>790.9827452639485</v>
+        <v>781.9314304310158</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>33086.06534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>841.9420108242864</v>
+        <v>796.3158327344975</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>33821.1264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>1123.742976564404</v>
+        <v>1097.429221319476</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>33866.72561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>964.5075632031588</v>
+        <v>928.853209725026</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>36660.96345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>979.1854948179625</v>
+        <v>928.2380526109997</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>37915.32721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>1175.539830144596</v>
+        <v>1105.619223133979</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>38507.33191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>1015.10241118592</v>
+        <v>986.5509504907519</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>39626.84315955194</v>
       </c>
       <c r="C29" t="n">
-        <v>948.3460906104484</v>
+        <v>899.3294493845233</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>40826.53392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>1193.071156312519</v>
+        <v>1363.829707685258</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>41000.99633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>1179.142124866852</v>
+        <v>1106.411639163403</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>41741.43521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>988.2488992172919</v>
+        <v>975.7971719791447</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>41784.82081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>1149.327263476484</v>
+        <v>1084.610957170714</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>44651.36115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>1307.884326541615</v>
+        <v>1231.70890405144</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>45987.96083386493</v>
       </c>
       <c r="C35" t="n">
-        <v>1283.419782224302</v>
+        <v>1238.981715426326</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>47222.94185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>1166.474404010509</v>
+        <v>1130.765106308259</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>47470.63295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>1921.006666058707</v>
+        <v>1851.066220260111</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>48657.75224672654</v>
       </c>
       <c r="C38" t="n">
-        <v>2237.223722107346</v>
+        <v>2678.07312783917</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>50152.63589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>1766.51300203615</v>
+        <v>1695.5922174267</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>50771.44050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>1915.563519137307</v>
+        <v>1848.241111526819</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>52692.84744205404</v>
       </c>
       <c r="C41" t="n">
-        <v>1619.678141688832</v>
+        <v>1563.604902509132</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>53011.73802062972</v>
       </c>
       <c r="C42" t="n">
-        <v>1699.265530149593</v>
+        <v>1627.201143406835</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>54652.508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>1649.501177803552</v>
+        <v>1566.49703229932</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>55045.61490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>1961.158104661114</v>
+        <v>1860.480274610089</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>55348.89320301366</v>
       </c>
       <c r="C45" t="n">
-        <v>1736.354645928301</v>
+        <v>1653.434195468234</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>59984.09112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>2385.0621575964</v>
+        <v>2277.482947079543</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>62940.19617704568</v>
       </c>
       <c r="C47" t="n">
-        <v>2338.549815276835</v>
+        <v>2277.428982068564</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>67139.05770213302</v>
       </c>
       <c r="C48" t="n">
-        <v>1845.956226371107</v>
+        <v>1771.536879235642</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>78211.48525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>1596.173224836546</v>
+        <v>1504.431802963491</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         <v>112700.6754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>3451.430629123627</v>
+        <v>3386.155625376966</v>
       </c>
     </row>
   </sheetData>
